--- a/data/income_statement/2digits/total/70_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/70_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>70-Activities of head offices; management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>70-Activities of head offices; management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,170 +841,195 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>6699618.76457</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6281388.567689999</v>
+        <v>6287258.11825</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7820833.282269999</v>
+        <v>7824029.514789999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7501525.508040001</v>
+        <v>7768928.35549</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8152468.67794</v>
+        <v>8264584.632710001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9168311.174880002</v>
+        <v>9231484.219950002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13833416.92732</v>
+        <v>14563331.29888</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12358948.38884</v>
+        <v>12700998.22675</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>16173161.60268</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21306978.81068</v>
+        <v>21331643.93779</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22929878.80468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23140960.95939</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31480253.734</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5003165.81109</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4271953.58166</v>
+        <v>4277752.9202</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>6216310.083860001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5949239.84038</v>
+        <v>6212102.72719</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6459030.18432</v>
+        <v>6565307.34291</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7161290.517100001</v>
+        <v>7214850.442139999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11579256.96731</v>
+        <v>12260505.08117</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9963846.778760003</v>
+        <v>10211325.82653</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12838171.69289</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16886861.88188</v>
+        <v>16904730.68267</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18187382.89719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18363787.81941</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>24229246.696</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>361262.60847</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>408432.1000899999</v>
+        <v>408432.10009</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>539337.5606999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>591873.5894299999</v>
+        <v>592433.83244</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>658927.33573</v>
+        <v>660622.90379</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>922791.88468</v>
+        <v>925963.7946500001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>970145.01958</v>
+        <v>976813.62481</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1030864.73352</v>
+        <v>1089633.57933</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1658195.18131</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1961439.09854</v>
+        <v>1967485.8413</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2608707.49843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2635017.13268</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5019726.857</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1335190.34501</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1601002.88594</v>
+        <v>1601073.09796</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1065185.63771</v>
+        <v>1068381.87023</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>960412.07823</v>
+        <v>964391.7958600001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1034511.15789</v>
+        <v>1038654.38601</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1084228.7731</v>
+        <v>1090669.98316</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1284014.94043</v>
+        <v>1326012.5929</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1364236.87656</v>
+        <v>1400038.82089</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1676794.72848</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2458677.83026</v>
+        <v>2459427.41382</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2133788.40906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2142156.0073</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2231280.181</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>69277.58434</v>
@@ -1115,34 +1041,39 @@
         <v>102165.86839</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>120514.28963</v>
+        <v>120562.06872</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>48554.42674</v>
+        <v>49050.19224</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>59782.79506</v>
+        <v>59806.00529</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>70996.33033</v>
+        <v>84382.25449000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>82938.17534999999</v>
+        <v>104101.97878</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>175390.15911</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>442665.37485</v>
+        <v>442699.50485</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>267568.05908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>267968.02463</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>320865.771</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>44631.69318</v>
@@ -1154,34 +1085,39 @@
         <v>70226.04537000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>85727.26796</v>
+        <v>85775.04704999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>38827.38501999999</v>
+        <v>39249.83637999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>53285.56952999999</v>
+        <v>53290.14235</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>64912.49234</v>
+        <v>78170.50734</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>68494.20595</v>
+        <v>88691.32089</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>166185.35281</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>425194.78538</v>
+        <v>425228.91538</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>205907.65233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>206149.94385</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>267569.66</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23871.06158</v>
@@ -1196,16 +1132,16 @@
         <v>32625.97328</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8245.312240000001</v>
+        <v>8246.007029999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5042.25851</v>
+        <v>5042.55851</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4449.46209</v>
+        <v>4577.27309</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12190.91647</v>
+        <v>12276.67442</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>4236.80065</v>
@@ -1214,13 +1150,18 @@
         <v>8957.845859999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>16324.45276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16327.11345</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>38904.627</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>774.8295800000001</v>
@@ -1235,70 +1176,80 @@
         <v>2161.04839</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1481.72948</v>
+        <v>1554.34883</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1454.96702</v>
+        <v>1473.30443</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1634.3759</v>
+        <v>1634.47406</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2253.05293</v>
+        <v>3133.98347</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4968.005649999999</v>
+        <v>4968.00565</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>8512.74361</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>45335.95399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>45490.96733000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>14391.484</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6630341.18023</v>
+        <v>6630341.180229999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6209481.79457</v>
+        <v>6215351.34513</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7718667.413879999</v>
+        <v>7721863.646400001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7381011.21841</v>
+        <v>7648366.286769999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8103914.251199999</v>
+        <v>8215534.440470002</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9108528.37982</v>
+        <v>9171678.21466</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13762420.59699</v>
+        <v>14478949.04439</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12276010.21349</v>
+        <v>12596896.24797</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>15997771.44357</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20864313.43583</v>
+        <v>20888944.43294</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>22662310.7456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22872992.93476</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31159387.963</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3878083.28094</v>
@@ -1310,112 +1261,127 @@
         <v>4085254.94576</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3742271.69286</v>
+        <v>3747197.46792</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4100988.312259999</v>
+        <v>4135601.96807</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4673387.67661</v>
+        <v>4720797.244059999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5354423.817770001</v>
+        <v>5431661.632549999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6429891.090360001</v>
+        <v>6666988.06266</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8942130.560930001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10513179.23557</v>
+        <v>10523695.49844</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12272697.65011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12414610.179</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18728038.558</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>115889.53628</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>36483.52375000001</v>
+        <v>36483.52375</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>85053.21090000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>67085.26815</v>
+        <v>67085.26814999999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>60029.15851</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>83131.99741</v>
+        <v>83131.99741000001</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>120510.6326</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>160361.61434</v>
+        <v>160398.16099</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>345122.18676</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>235551.87342</v>
+        <v>236241.82813</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>167161.65038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>174857.11285</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2283689.022</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>963615.40419</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>717384.21368</v>
+        <v>717384.2136799999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>689658.24</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>762666.75166</v>
+        <v>762690.4700900001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>593899.75116</v>
+        <v>595293.17587</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>663749.24193</v>
+        <v>670049.0550699999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>785311.0991300001</v>
+        <v>802019.47178</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>996328.59554</v>
+        <v>997034.00677</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2049080.60029</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2100163.73316</v>
+        <v>2103266.79634</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2107833.13157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2179995.52303</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5334650.036</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2163490.29671</v>
@@ -1427,34 +1393,39 @@
         <v>3289600.31113</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2853581.69408</v>
+        <v>2858483.75071</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3359932.63659</v>
+        <v>3393152.86769</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3888601.25058</v>
+        <v>3929660.40253</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4399936.54558</v>
+        <v>4459590.39391</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5227899.288840001</v>
+        <v>5464245.934520001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6504980.542649999</v>
+        <v>6504980.54265</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8065741.360189999</v>
+        <v>8072457.16669</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9842832.289179998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9904515.004170001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10905545.698</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>635088.04376</v>
@@ -1472,106 +1443,121 @@
         <v>87126.766</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>37905.18668999999</v>
+        <v>37955.78905</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>48665.54046000001</v>
+        <v>49541.13426</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>45301.59164</v>
+        <v>45309.96038</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>42947.23123</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>111722.2688</v>
+        <v>111729.70728</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>154870.57898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>155242.53895</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>204153.802</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2752257.89929</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3553069.14735</v>
+        <v>3558938.69791</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3633412.46812</v>
+        <v>3636608.70064</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3638739.52555</v>
+        <v>3901168.81885</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4002925.938940001</v>
+        <v>4079932.472399999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4435140.70321</v>
+        <v>4450880.970600001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8407996.77922</v>
+        <v>9047287.411839999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5846119.12313</v>
+        <v>5929908.18531</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7055640.88264</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10351134.20026</v>
+        <v>10365248.9345</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10389613.09549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10458382.75576</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12431349.405</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1799193.68501</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1997480.00372</v>
+        <v>2002575.63924</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2383480.066399999</v>
+        <v>2385922.61129</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2824573.13577</v>
+        <v>2910725.26427</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3124465.04323</v>
+        <v>3206658.46169</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3907044.68867</v>
+        <v>3945027.70656</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4314622.56755</v>
+        <v>4781809.700389999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5176422.06494</v>
+        <v>5292576.84046</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>6066020.5776</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>7936123.051770001</v>
+        <v>7947610.75194</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>9190682.093880001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9289624.439380001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10290231.029</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>30117.94052</v>
@@ -1586,31 +1572,36 @@
         <v>20582.29321</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>40636.39947</v>
+        <v>40672.29334</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>56468.59314</v>
+        <v>56486.84024999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>43519.17900000001</v>
+        <v>43547.44104</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>53808.05966000001</v>
+        <v>54539.28364</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>48918.81818</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>71946.84142</v>
+        <v>71949.18821000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>88490.73799000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>88495.9654</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>89138.969</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>190419.30301</v>
@@ -1622,178 +1613,198 @@
         <v>172839.27532</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>209158.81713</v>
+        <v>209182.2033</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>166147.40784</v>
+        <v>166479.90163</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>169846.92927</v>
+        <v>170310.32021</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>196100.7166</v>
+        <v>212171.74859</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>232810.43337</v>
+        <v>254403.83181</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>296872.81686</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>468130.89521</v>
+        <v>468747.19867</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>599880.9513099999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>602840.54756</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>891032.8370000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1578656.44148</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1828386.63597</v>
+        <v>1833482.27149</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2191352.76619</v>
+        <v>2193795.31108</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2594832.02543</v>
+        <v>2680960.76776</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2917681.23592</v>
+        <v>2999506.26672</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3680729.16626</v>
+        <v>3718230.5461</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4075002.67195</v>
+        <v>4526090.51076</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4889803.571909999</v>
+        <v>4983633.725009999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5720228.94256</v>
+        <v>5720228.942559999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7396045.31514</v>
+        <v>7406914.36506</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8502310.404580001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8598287.926419999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9310059.222999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>953064.21428</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1555589.14363</v>
+        <v>1556363.05867</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1249932.40172</v>
+        <v>1250686.08935</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>814166.38978</v>
+        <v>990443.5545799998</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>878460.8957100001</v>
+        <v>873274.0107099999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>528096.01454</v>
+        <v>505853.2640399999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4093374.21167</v>
+        <v>4265477.711449999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>669697.05819</v>
+        <v>637331.3448500001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>989620.30504</v>
+        <v>989620.3050399999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2415011.14849</v>
+        <v>2417638.18256</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1198931.00161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1168758.31638</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2141118.376</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>9129135.23041</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10204630.00147</v>
+        <v>10210979.80322</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14232841.33626</v>
+        <v>14238083.57824</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12549670.31027</v>
+        <v>12718828.02281</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17973172.04819</v>
+        <v>18639546.64825</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>20712747.67374</v>
+        <v>22194787.5128</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>36388794.25635</v>
+        <v>40888118.86899</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>34894541.34242</v>
+        <v>35212305.08086</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>41964839.23164999</v>
+        <v>41964839.23165</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>88553166.75836</v>
+        <v>88560758.01706</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>75861909.07723999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>74813042.67585</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>94100759.79000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1153376.56835</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1387431.67496</v>
+        <v>1387432.9035</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1872598.06486</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2463840.37313</v>
+        <v>2478378.18663</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2924768.38494</v>
+        <v>2928160.85004</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3504960.04737</v>
+        <v>3504971.46095</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4301511.34486</v>
+        <v>5199348.48735</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4296626.47179</v>
+        <v>4326779.939069999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6112980.665189999</v>
+        <v>6112980.66519</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>7958282.15657</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8415637.59468</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>6504869.008</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1467063.85597</v>
@@ -1820,19 +1836,19 @@
         <v>3025753.31008</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3091215.48964</v>
+        <v>3361301.26599</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3752903.15886</v>
+        <v>4345057.687770001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5196985.76441</v>
+        <v>7342554.724299999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5920645.176169999</v>
+        <v>5957855.79814</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7148813.056340001</v>
+        <v>7148813.05634</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>14519952.40093</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>21755404.44079</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>16554188.06</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1086281.12987</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>899185.72968</v>
+        <v>900018.62723</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1525478.0026</v>
+        <v>1526006.41836</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1740064.72605</v>
+        <v>1790529.31845</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2027414.09337</v>
+        <v>2054914.90995</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2732734.3355</v>
+        <v>2763608.53142</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3106102.49313</v>
+        <v>3479004.80854</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3875904.15152</v>
+        <v>3882042.35785</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>5204049.532179999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8532088.361689998</v>
+        <v>8532216.67936</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10766332.94018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10767179.49524</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7069167.537</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>15190.16893</v>
@@ -1895,58 +1921,63 @@
         <v>22295.01901</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>23702.76871</v>
+        <v>23774.23771</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>39628.27238999999</v>
+        <v>41185.50903</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>54762.71649000001</v>
+        <v>54762.71649</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>72695.14917</v>
+        <v>72961.40229000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>77774.82595</v>
+        <v>77774.91356</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>116634.47848</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>154282.44311</v>
+        <v>154282.96642</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>233952.402</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>371131.742</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>430990.94385</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>419299.1948000001</v>
+        <v>419299.1948</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>292161.13743</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>353943.9808500001</v>
+        <v>354034.98285</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1196807.74394</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>391564.90474</v>
+        <v>392059.52441</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1249581.11212</v>
+        <v>1249847.57251</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1095738.00627</v>
+        <v>1096118.11269</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>544688.6688099999</v>
@@ -1955,13 +1986,18 @@
         <v>306955.4079399999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>298511.23217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>298763.79264</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>320169.076</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>214647.38949</v>
@@ -1973,79 +2009,89 @@
         <v>1125936.04689</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>401369.46302</v>
+        <v>403453.3476</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>709918.9551200001</v>
+        <v>710876.95229</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>623460.20792</v>
+        <v>625513.20935</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5390284.83816</v>
+        <v>5392120.147920001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>301567.86512</v>
+        <v>301602.31158</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2147739.90481</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3773864.64233</v>
+        <v>3773864.64719</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1782663.53049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1782663.54064</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6400200.82</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4049019.134489999</v>
+        <v>4049019.13449</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4181658.1734</v>
+        <v>4187173.849059999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5991697.813300001</v>
+        <v>5996390.76345</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3750652.10754</v>
+        <v>3846286.16656</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7200736.99295</v>
+        <v>7492921.97042</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8716160.46064</v>
+        <v>9495140.00443</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15942318.77406</v>
+        <v>16940535.57061</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18162884.74181</v>
+        <v>18348059.35306</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>18830901.1786</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>50725156.23016</v>
+        <v>50732620.58927</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>29034097.88298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29038717.16356</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>53658458.331</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1464.30494</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>772.4477800000002</v>
+        <v>772.44778</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>759.1837800000001</v>
@@ -2057,7 +2103,7 @@
         <v>6387.80334</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8186.09287</v>
+        <v>8186.36899</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>1562.40065</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>163206.86049</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>716169.9570000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>376.1447900000001</v>
@@ -2087,7 +2138,7 @@
         <v>4.86875</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>894.3149800000001</v>
+        <v>894.31498</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>18.9916</v>
@@ -2111,97 +2162,112 @@
         <v>270.37357</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1247.71781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1208.52121</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>903.235</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>710725.58973</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>607428.5064900002</v>
+        <v>607428.5064900001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>960129.8896999999</v>
+        <v>960150.7657699999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>789359.8030199999</v>
+        <v>795634.6950599999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>775739.42524</v>
+        <v>846434.75599</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>927536.94571</v>
+        <v>1005009.20535</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1127691.69963</v>
+        <v>1210123.07466</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1162116.15474</v>
+        <v>1220788.34586</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1857003.95104</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2571333.21539</v>
+        <v>2571331.26914</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3410854.47565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2356308.8646</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2505502.024</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3833266.72278</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4167415.246529999</v>
+        <v>4172363.4844</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4642805.73987</v>
+        <v>4647816.514350001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3722059.984480001</v>
+        <v>3835650.68659</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6130680.983719999</v>
+        <v>6423389.6221</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7658379.46979</v>
+        <v>8359502.74985</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13472874.90765</v>
+        <v>14071224.01112</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14252179.40004</v>
+        <v>14448343.73856</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>15525866.15008</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>43686135.08310999</v>
+        <v>43693747.83819</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>28889831.72334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28899780.54745</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>55183646.436</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>7334.88251</v>
+        <v>7334.882509999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5674.035680000001</v>
+        <v>5674.03568</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>7363.7491</v>
@@ -2210,13 +2276,13 @@
         <v>8248.174859999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>25682.16314</v>
+        <v>26764.71915</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8072.52591</v>
+        <v>8159.712390000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6967.367029999999</v>
+        <v>6967.90359</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>11468.12911</v>
@@ -2225,16 +2291,21 @@
         <v>13658.1378</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>55053.13067999999</v>
+        <v>55053.21634000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33164.39874</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>33128.15408</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>393179.592</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>103273.93217</v>
@@ -2243,7 +2314,7 @@
         <v>25121.51172</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>38082.04882</v>
+        <v>38082.04882000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>149395.91383</v>
@@ -2252,13 +2323,13 @@
         <v>58373.0211</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>78295.09866</v>
+        <v>79254.28107</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>57028.00362</v>
+        <v>57930.77186</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>92672.40604</v>
+        <v>95222.64284</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>51971.99159999999</v>
@@ -2267,13 +2338,18 @@
         <v>255625.54754</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>89112.77327999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>92235.48209999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>101413.773</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>58313.0926</v>
@@ -2285,16 +2361,16 @@
         <v>195536.69657</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>97987.80589999999</v>
+        <v>108535.8059</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>150222.06501</v>
+        <v>150695.44147</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>292884.66774</v>
+        <v>293434.50504</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>118579.54035</v>
+        <v>118669.29752</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>125169.04546</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>264751.00292</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>778963.223</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3501624.53454</v>
+        <v>3501624.534539999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3608912.55661</v>
+        <v>3613860.79448</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3903573.94099</v>
+        <v>3906940.73547</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3189056.30912</v>
+        <v>3286850.86733</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5663977.183460001</v>
+        <v>5899665.342629999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7051436.88745</v>
+        <v>7700348.56446</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12510712.17072</v>
+        <v>13093647.11748</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13539964.18332</v>
+        <v>13729208.7814</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>14288951.16566</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>40361210.31484</v>
+        <v>40368777.9632</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27689347.32415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>27693889.59299</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>51977705.264</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4380.926350000001</v>
+        <v>4380.92635</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>547.03625</v>
@@ -2369,10 +2455,10 @@
         <v>2767.74316</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7642.299400000001</v>
+        <v>7642.2994</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>8996.375430000002</v>
+        <v>8996.37543</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1071.962</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>28899.17429</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>747226.796</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2.52164</v>
@@ -2423,13 +2514,18 @@
         <v>166.46318</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>6741.80032</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>719.19345</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>898.212</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>158336.83297</v>
@@ -2438,232 +2534,262 @@
         <v>261351.17099</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>495627.16642</v>
+        <v>497271.14642</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>276722.36096</v>
+        <v>281970.50486</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>229622.18545</v>
+        <v>285086.73219</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>219861.17231</v>
+        <v>270476.56917</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>487937.6252000001</v>
+        <v>502358.71994</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>481833.67411</v>
+        <v>486203.17775</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>829114.39477</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2415756.99965</v>
+        <v>2415802.02071</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>777815.2496399999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>786157.94762</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1184259.576</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2004724.28629</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2064384.38153</v>
+        <v>2064385.82296</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4227053.842370001</v>
+        <v>4227061.7552</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2584694.5529</v>
+        <v>2650856.420690001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5974780.037070001</v>
+        <v>6453867.538690001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6524889.649379999</v>
+        <v>7052359.888850001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13744722.68642</v>
+        <v>14378024.87049</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>16294429.50224</v>
+        <v>16310745.73599</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>16555350.38458</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>39684919.38939</v>
+        <v>39684975.57687</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32106552.25184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>32118261.70965</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>42609067.67</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1087951.01391</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1382844.5444</v>
+        <v>1382845.98583</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2752342.73935</v>
+        <v>2752350.65218</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1747320.49198</v>
+        <v>1792921.84635</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3534976.473610001</v>
+        <v>3862193.67162</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4277946.897290001</v>
+        <v>4606772.40682</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9435104.382759998</v>
+        <v>9551544.338270001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10395643.94479</v>
+        <v>10411960.17854</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>11926470.83623</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>24669604.48252999</v>
+        <v>24669660.67001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>20735400.23498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>20737239.01486</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>28675069.742</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>916773.27238</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>681539.8371300001</v>
+        <v>681539.83713</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1474711.10302</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>837374.0609199998</v>
+        <v>857934.5743400001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2439803.56346</v>
+        <v>2591673.86707</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2246942.75209</v>
+        <v>2445587.48203</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4309618.30366</v>
+        <v>4826480.53222</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>5898785.55745</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4628879.54835</v>
+        <v>4628879.548350001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>15015314.90686</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11371152.01686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11381022.69479</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13933997.928</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4244208.43562</v>
+        <v>4244208.435620001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5528419.51704</v>
+        <v>5530593.554529999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6612914.155739999</v>
+        <v>6613891.398039999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7057082.16267</v>
+        <v>7222764.47011</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6746171.92311</v>
+        <v>6635563.498170001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7057574.56911</v>
+        <v>7288778.13814</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>13264570.87395</v>
+        <v>16704347.69883</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5017629.49833</v>
+        <v>5090546.95116</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>10873243.00203</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7597123.434350001</v>
+        <v>7599672.78456</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>16064456.10367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>14963758.73513</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1550835.94</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1109914.15089</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1645807.33518</v>
+        <v>1645808.19546</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1421368.47433</v>
+        <v>1421449.032</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1818563.81752</v>
+        <v>1821984.11894</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4711186.51788</v>
+        <v>4714985.37881</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1453217.00402</v>
+        <v>1640115.85704</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3904140.27594</v>
+        <v>4282607.166979999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4885599.93785</v>
+        <v>4886946.28737</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>7539784.848299999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9941704.460769998</v>
+        <v>9941879.547560001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6882603.68533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7993909.393379999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4911745.818</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>8011.18206</v>
@@ -2672,7 +2798,7 @@
         <v>10578.13229</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4174.763889999999</v>
+        <v>4174.76389</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>40015.91474</v>
@@ -2681,13 +2807,13 @@
         <v>8442.602339999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3795.21437</v>
+        <v>4012.82858</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>10340.42533</v>
+        <v>10341.89755</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8351.49698</v>
+        <v>8652.533240000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>8222.58763</v>
@@ -2696,97 +2822,112 @@
         <v>23462.99171</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>28076.11686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>28119.52953</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>67668.826</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1101902.96883</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1635229.20289</v>
+        <v>1635230.06317</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1417193.71044</v>
+        <v>1417274.26811</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1778547.90278</v>
+        <v>1781968.2042</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4702743.91554</v>
+        <v>4706542.77647</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1449421.78965</v>
+        <v>1636103.02846</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3893799.85061</v>
+        <v>4272265.269429999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4877248.44087</v>
+        <v>4878293.75413</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>7531562.26067</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9918241.46906</v>
+        <v>9918416.555849999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6854527.56847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7965789.86385</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4844076.992</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>346364.69159</v>
+        <v>346364.6915900001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1032174.6107</v>
+        <v>1032184.40383</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2334849.09195</v>
+        <v>2339369.77071</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>533124.31084</v>
+        <v>534272.8445</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1587938.3194</v>
+        <v>1855776.37994</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1221523.10882</v>
+        <v>1721419.42357</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>886368.3562899999</v>
+        <v>892755.57002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2261843.91846</v>
+        <v>2264078.69197</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1074676.67614</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2660275.58334</v>
+        <v>2661099.85656</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3548516.92931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3551827.38581</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4422150.423</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2845.17348</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>668.3225800000001</v>
+        <v>668.3225799999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>1100.42842</v>
@@ -2795,16 +2936,16 @@
         <v>1011.27412</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1457.36347</v>
+        <v>1526.45963</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1090.21182</v>
+        <v>1091.1072</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3157.17867</v>
+        <v>3157.52355</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1045.24024</v>
+        <v>1048.38164</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1738.74418</v>
@@ -2813,16 +2954,21 @@
         <v>1661.51009</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2611.30837</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2631.36773</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>107899.337</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>30326.45121</v>
+        <v>30326.45120999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>30999.84561</v>
@@ -2834,109 +2980,124 @@
         <v>23455.93925</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>13252.86739</v>
+        <v>13254.30825</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>116742.2803</v>
+        <v>116879.08563</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>48330.24610999999</v>
+        <v>49887.11914</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>44948.3987</v>
+        <v>44950.33237999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>44494.63812999999</v>
+        <v>44494.63813</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>61948.45168</v>
+        <v>61950.48228</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>35625.96517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>35678.13187</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>157528.364</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>313193.0669</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1000506.44251</v>
+        <v>1000516.23564</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2308017.15661</v>
+        <v>2312537.83537</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>508657.09747</v>
+        <v>509805.63113</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1573228.08854</v>
+        <v>1840995.61206</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1103690.6167</v>
+        <v>1603449.23074</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>834880.93151</v>
+        <v>839710.92733</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2215850.27952</v>
+        <v>2218079.97795</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1028443.29383</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2596665.62157</v>
+        <v>2597487.86419</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3510279.65577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3513517.88621</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4156722.722</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5007757.894919999</v>
+        <v>5007757.89492</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6142052.24152</v>
+        <v>6144217.34616</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5699433.538120001</v>
+        <v>5695970.65933</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8342521.66935</v>
+        <v>8510475.744549999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9869420.121589998</v>
+        <v>9494772.497040002</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7289268.464310001</v>
+        <v>7207474.57161</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>16282342.7936</v>
+        <v>20094199.29579</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7641385.517719999</v>
+        <v>7713414.54656</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>17338351.17419</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>14878552.31178</v>
+        <v>14880452.47556</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19398542.85969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>19405840.7427</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1061240.545</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>202984.15777</v>
@@ -2945,73 +3106,81 @@
         <v>223944.03641</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>557825.9394799999</v>
+        <v>557860.1688399999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>257522.01226</v>
+        <v>257717.2514</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>483209.45449</v>
+        <v>483820.46426</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>362206.78564</v>
+        <v>363178.65512</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>563686.47045</v>
+        <v>699154.9946</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>591118.10511</v>
+        <v>599306.0314300001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>621807.68199</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1414618.22356</v>
+        <v>1415498.71495</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>934115.91214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>933461.5245999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1392203.388</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4804773.73715</v>
+        <v>4804773.737149999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5918108.20511</v>
+        <v>5920273.30975</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5141607.59864</v>
+        <v>5138110.49049</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8084999.65709</v>
+        <v>8252758.49315</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9386210.667099999</v>
+        <v>9010952.032779999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6927061.67867</v>
+        <v>6844295.91649</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>15718656.32315</v>
+        <v>19395044.30119</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7050267.412610001</v>
+        <v>7114108.51513</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>16716543.4922</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>13463934.08822</v>
+        <v>13464953.76061</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>18464426.94755</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>18472379.2181</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2453443.933</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3650</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5002</v>
+        <v>5009</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6087</v>
+        <v>6099</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6687</v>
+        <v>6715</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7404</v>
+        <v>7484</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8149</v>
+        <v>8228</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9021</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9675</v>
+        <v>10151</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10581</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11513</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12923</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>